--- a/biology/Zoologie/Diagramma_melanacrum/Diagramma_melanacrum.xlsx
+++ b/biology/Zoologie/Diagramma_melanacrum/Diagramma_melanacrum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Diagramma melanacrum · Diagramme à nageoires noires
-Diagramma melanacrum, communément nommé Diagramme à nageoires noires[2], est une espèce de poisson marin de la famille des Haemulidae.
-Le Diagramme à nageoires noires est présent dans les eaux tropicales du centre de la région Indo-Pacifique soit de l'Indonésie aux Philippines en incluant Bornéo.[3]
-Sa taille maximale est de 45 cm[4].
+Diagramma melanacrum, communément nommé Diagramme à nageoires noires, est une espèce de poisson marin de la famille des Haemulidae.
+Le Diagramme à nageoires noires est présent dans les eaux tropicales du centre de la région Indo-Pacifique soit de l'Indonésie aux Philippines en incluant Bornéo.
+Sa taille maximale est de 45 cm.
 Il doit son nom à ses nageoires inférieures qui sont noires, et il se distingue également par ses taches noires alignées en diagonale.
 </t>
         </is>
